--- a/Configs/FRTBConfig_SG-MAS.xlsx
+++ b/Configs/FRTBConfig_SG-MAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0EAA5F-7BF8-7344-AE0F-6E41D1903802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4EE87D-ADED-D246-9EEE-32B5EB73F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81500" yWindow="8800" windowWidth="40740" windowHeight="26900" activeTab="11" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="107220" yWindow="15380" windowWidth="40740" windowHeight="26900" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="22" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="289">
   <si>
     <t>Bucket</t>
   </si>
@@ -871,6 +871,108 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FutureVol</t>
+  </si>
+  <si>
+    <t>Future realised volatility</t>
+  </si>
+  <si>
+    <t>NaturalDisaster</t>
+  </si>
+  <si>
+    <t>Natural disasters</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Longevity</t>
+  </si>
+  <si>
+    <t>Longevity risk</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other exotic underlyings which are not in the scope of the delta, vega or curvature risk</t>
+  </si>
+  <si>
+    <t>PathDependent</t>
+  </si>
+  <si>
+    <t>Options where the pay-offs depend on the path followed by the price of the underlying asset and not just its final price on the exercise date</t>
+  </si>
+  <si>
+    <t>FutureStrike</t>
+  </si>
+  <si>
+    <t>Options that start at a predefined date in the future and whose strike price is not yet determined at the time at which the option is in the trading book of the institution</t>
+  </si>
+  <si>
+    <t>OptionOnOption</t>
+  </si>
+  <si>
+    <t>Options whose underlying is another option</t>
+  </si>
+  <si>
+    <t>Discontinuious</t>
+  </si>
+  <si>
+    <t>Options with discontinuous pay-offs</t>
+  </si>
+  <si>
+    <t>VarialbleTerms</t>
+  </si>
+  <si>
+    <t>Options allowing the holder to modify the strike price or other terms of the contract before the maturity of the option</t>
+  </si>
+  <si>
+    <t>Bermudan</t>
+  </si>
+  <si>
+    <t>Options that can be exercised on a finite set of predetermined dates</t>
+  </si>
+  <si>
+    <t>XCcy</t>
+  </si>
+  <si>
+    <t>Options whose underlying is denominated in one currency but whose pay-offs are settled in a different currency, with a predetermined exchange rate between the two currencies</t>
+  </si>
+  <si>
+    <t>MultiUnderlier</t>
+  </si>
+  <si>
+    <t>Multi-underlying options</t>
+  </si>
+  <si>
+    <t>Behavioural</t>
+  </si>
+  <si>
+    <t>Options subject to behavioural risk</t>
+  </si>
+  <si>
+    <t>OpenMaturity</t>
+  </si>
+  <si>
+    <t>Options that do not have a maturity</t>
+  </si>
+  <si>
+    <t>MultiBarrier</t>
+  </si>
+  <si>
+    <t>Options that do not have a strike or barrier and options that have multiple strikes or barriers</t>
+  </si>
+  <si>
+    <t>Other instruments exposed to residual risk</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1005,6 +1107,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82834F55-8097-2C47-A3D2-ED626DBEE38D}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1775,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2202,28 +2310,229 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C708CD6-DEC9-194A-B3B9-9CA14913B1F0}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B19" t="s">
         <v>163</v>
       </c>
-      <c r="C1">
+      <c r="C19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
         <v>164</v>
       </c>
-      <c r="C2">
+      <c r="C20">
         <v>1E-3</v>
       </c>
     </row>

--- a/Configs/FRTBConfig_SG-MAS.xlsx
+++ b/Configs/FRTBConfig_SG-MAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4EE87D-ADED-D246-9EEE-32B5EB73F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D684A-B81B-3D4B-A2AA-CD1396094EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="107220" yWindow="15380" windowWidth="40740" windowHeight="26900" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
   <si>
     <t>Bucket</t>
   </si>
@@ -1526,9 +1526,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1773,7 +1771,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5213FE0F-D032-134C-8CBD-C9C991BBB3F3}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2137,7 +2135,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:4">
       <c r="B33">
         <v>32</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4">
       <c r="B34">
         <v>33</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35">
         <v>34</v>
       </c>
@@ -2170,7 +2168,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36">
         <v>35</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2214,7 +2212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2225,7 +2223,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41">
         <v>40</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42">
         <v>41</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43">
         <v>42</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44">
         <v>43</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45">
         <v>44</v>
       </c>
@@ -2280,7 +2278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46">
         <v>45</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47">
         <v>46</v>
       </c>
@@ -2300,6 +2298,89 @@
       </c>
       <c r="D47" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/FRTBConfig_SG-MAS.xlsx
+++ b/Configs/FRTBConfig_SG-MAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D684A-B81B-3D4B-A2AA-CD1396094EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE44E34-77D1-EB48-B380-2CAFF6A55E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="107220" yWindow="15380" windowWidth="40740" windowHeight="26900" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="288">
   <si>
     <t>Bucket</t>
   </si>
@@ -871,9 +871,6 @@
   </si>
   <si>
     <t>Region</t>
-  </si>
-  <si>
-    <t>Buckets</t>
   </si>
   <si>
     <t>Description</t>
@@ -2399,7 +2396,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2408,7 +2405,7 @@
         <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2416,10 +2413,10 @@
         <v>163</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2427,10 +2424,10 @@
         <v>163</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2438,10 +2435,10 @@
         <v>163</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2449,10 +2446,10 @@
         <v>163</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2460,10 +2457,10 @@
         <v>163</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2471,10 +2468,10 @@
         <v>164</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2482,10 +2479,10 @@
         <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2493,10 +2490,10 @@
         <v>164</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2504,10 +2501,10 @@
         <v>164</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2515,10 +2512,10 @@
         <v>164</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2526,10 +2523,10 @@
         <v>164</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2537,10 +2534,10 @@
         <v>164</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2548,10 +2545,10 @@
         <v>164</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2559,10 +2556,10 @@
         <v>164</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2570,10 +2567,10 @@
         <v>164</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2581,10 +2578,10 @@
         <v>164</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2592,10 +2589,10 @@
         <v>164</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:4">
